--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3845936666666667</v>
+        <v>0.01473133333333333</v>
       </c>
       <c r="H2">
-        <v>1.153781</v>
+        <v>0.044194</v>
       </c>
       <c r="I2">
-        <v>0.001195342028687421</v>
+        <v>4.600893861834377E-05</v>
       </c>
       <c r="J2">
-        <v>0.001195342028687421</v>
+        <v>4.600893861834377E-05</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>224.2321046666666</v>
+        <v>13.35941066666667</v>
       </c>
       <c r="N2">
-        <v>672.6963139999999</v>
+        <v>40.078232</v>
       </c>
       <c r="O2">
-        <v>0.9009864013525986</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="P2">
-        <v>0.9009864013525987</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="Q2">
-        <v>86.2382473181371</v>
+        <v>0.1968019316675556</v>
       </c>
       <c r="R2">
-        <v>776.1442258632338</v>
+        <v>1.771217385008</v>
       </c>
       <c r="S2">
-        <v>0.001076986912812594</v>
+        <v>2.266195588506021E-05</v>
       </c>
       <c r="T2">
-        <v>0.001076986912812594</v>
+        <v>2.266195588506021E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3845936666666667</v>
+        <v>0.01473133333333333</v>
       </c>
       <c r="H3">
-        <v>1.153781</v>
+        <v>0.044194</v>
       </c>
       <c r="I3">
-        <v>0.001195342028687421</v>
+        <v>4.600893861834377E-05</v>
       </c>
       <c r="J3">
-        <v>0.001195342028687421</v>
+        <v>4.600893861834377E-05</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.071113</v>
       </c>
       <c r="O3">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="P3">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="Q3">
-        <v>0.3937102031392222</v>
+        <v>0.01508052976911111</v>
       </c>
       <c r="R3">
-        <v>3.543391828253</v>
+        <v>0.135724767922</v>
       </c>
       <c r="S3">
-        <v>4.916852433903222E-06</v>
+        <v>1.736539359421716E-06</v>
       </c>
       <c r="T3">
-        <v>4.916852433903221E-06</v>
+        <v>1.736539359421716E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3845936666666667</v>
+        <v>0.01473133333333333</v>
       </c>
       <c r="H4">
-        <v>1.153781</v>
+        <v>0.044194</v>
       </c>
       <c r="I4">
-        <v>0.001195342028687421</v>
+        <v>4.600893861834377E-05</v>
       </c>
       <c r="J4">
-        <v>0.001195342028687421</v>
+        <v>4.600893861834377E-05</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.61820766666667</v>
+        <v>12.73953533333333</v>
       </c>
       <c r="N4">
-        <v>70.854623</v>
+        <v>38.218606</v>
       </c>
       <c r="O4">
-        <v>0.09490025508890343</v>
+        <v>0.4697009760022101</v>
       </c>
       <c r="P4">
-        <v>0.09490025508890343</v>
+        <v>0.46970097600221</v>
       </c>
       <c r="Q4">
-        <v>9.083413086618112</v>
+        <v>0.1876703415071111</v>
       </c>
       <c r="R4">
-        <v>81.750717779563</v>
+        <v>1.689033073564</v>
       </c>
       <c r="S4">
-        <v>0.0001134382634409236</v>
+        <v>2.161044337386184E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001134382634409236</v>
+        <v>2.161044337386184E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>959.350861</v>
       </c>
       <c r="I5">
-        <v>0.9939082065060565</v>
+        <v>0.9987490355524334</v>
       </c>
       <c r="J5">
-        <v>0.9939082065060565</v>
+        <v>0.9987490355524334</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>224.2321046666666</v>
+        <v>13.35941066666667</v>
       </c>
       <c r="N5">
-        <v>672.6963139999999</v>
+        <v>40.078232</v>
       </c>
       <c r="O5">
-        <v>0.9009864013525986</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="P5">
-        <v>0.9009864013525987</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="Q5">
-        <v>71705.75422526959</v>
+        <v>4272.120708506417</v>
       </c>
       <c r="R5">
-        <v>645351.7880274262</v>
+        <v>38449.08637655775</v>
       </c>
       <c r="S5">
-        <v>0.8954977782547072</v>
+        <v>0.4919393331736555</v>
       </c>
       <c r="T5">
-        <v>0.8954977782547073</v>
+        <v>0.4919393331736555</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>959.350861</v>
       </c>
       <c r="I6">
-        <v>0.9939082065060565</v>
+        <v>0.9987490355524334</v>
       </c>
       <c r="J6">
-        <v>0.9939082065060565</v>
+        <v>0.9987490355524334</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.071113</v>
       </c>
       <c r="O6">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="P6">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="Q6">
         <v>327.3638778642547</v>
@@ -818,10 +818,10 @@
         <v>2946.274900778293</v>
       </c>
       <c r="S6">
-        <v>0.004088285918969892</v>
+        <v>0.03769630559853401</v>
       </c>
       <c r="T6">
-        <v>0.004088285918969892</v>
+        <v>0.037696305598534</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>959.350861</v>
       </c>
       <c r="I7">
-        <v>0.9939082065060565</v>
+        <v>0.9987490355524334</v>
       </c>
       <c r="J7">
-        <v>0.9939082065060565</v>
+        <v>0.9987490355524334</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.61820766666667</v>
+        <v>12.73953533333333</v>
       </c>
       <c r="N7">
-        <v>70.854623</v>
+        <v>38.218606</v>
       </c>
       <c r="O7">
-        <v>0.09490025508890343</v>
+        <v>0.4697009760022101</v>
       </c>
       <c r="P7">
-        <v>0.09490025508890343</v>
+        <v>0.46970097600221</v>
       </c>
       <c r="Q7">
-        <v>7552.715953431156</v>
+        <v>4073.894730257752</v>
       </c>
       <c r="R7">
-        <v>67974.44358088041</v>
+        <v>36665.05257231976</v>
       </c>
       <c r="S7">
-        <v>0.09432214233237927</v>
+        <v>0.469113396780244</v>
       </c>
       <c r="T7">
-        <v>0.09432214233237927</v>
+        <v>0.4691133967802439</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.575402</v>
+        <v>0.3858076666666667</v>
       </c>
       <c r="H8">
-        <v>4.726206</v>
+        <v>1.157423</v>
       </c>
       <c r="I8">
-        <v>0.004896451465256114</v>
+        <v>0.001204955508948258</v>
       </c>
       <c r="J8">
-        <v>0.004896451465256113</v>
+        <v>0.001204955508948258</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>224.2321046666666</v>
+        <v>13.35941066666667</v>
       </c>
       <c r="N8">
-        <v>672.6963139999999</v>
+        <v>40.078232</v>
       </c>
       <c r="O8">
-        <v>0.9009864013525986</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="P8">
-        <v>0.9009864013525987</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="Q8">
-        <v>353.255706156076</v>
+        <v>5.154163057348446</v>
       </c>
       <c r="R8">
-        <v>3179.301355404684</v>
+        <v>46.38746751613601</v>
       </c>
       <c r="S8">
-        <v>0.004411636185078764</v>
+        <v>0.0005935074663156549</v>
       </c>
       <c r="T8">
-        <v>0.004411636185078764</v>
+        <v>0.0005935074663156548</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.575402</v>
+        <v>0.3858076666666667</v>
       </c>
       <c r="H9">
-        <v>4.726206</v>
+        <v>1.157423</v>
       </c>
       <c r="I9">
-        <v>0.004896451465256114</v>
+        <v>0.001204955508948258</v>
       </c>
       <c r="J9">
-        <v>0.004896451465256113</v>
+        <v>0.001204955508948258</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.071113</v>
       </c>
       <c r="O9">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="P9">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="Q9">
-        <v>1.612745854142</v>
+        <v>0.3949529801998889</v>
       </c>
       <c r="R9">
-        <v>14.514712687278</v>
+        <v>3.554576821799</v>
       </c>
       <c r="S9">
-        <v>2.014078709410886E-05</v>
+        <v>4.54792640403666E-05</v>
       </c>
       <c r="T9">
-        <v>2.014078709410886E-05</v>
+        <v>4.547926404036659E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.575402</v>
+        <v>0.3858076666666667</v>
       </c>
       <c r="H10">
-        <v>4.726206</v>
+        <v>1.157423</v>
       </c>
       <c r="I10">
-        <v>0.004896451465256114</v>
+        <v>0.001204955508948258</v>
       </c>
       <c r="J10">
-        <v>0.004896451465256113</v>
+        <v>0.001204955508948258</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.61820766666667</v>
+        <v>12.73953533333333</v>
       </c>
       <c r="N10">
-        <v>70.854623</v>
+        <v>38.218606</v>
       </c>
       <c r="O10">
-        <v>0.09490025508890343</v>
+        <v>0.4697009760022101</v>
       </c>
       <c r="P10">
-        <v>0.09490025508890343</v>
+        <v>0.46970097600221</v>
       </c>
       <c r="Q10">
-        <v>37.208171594482</v>
+        <v>4.91501040137089</v>
       </c>
       <c r="R10">
-        <v>334.873544350338</v>
+        <v>44.23509361233801</v>
       </c>
       <c r="S10">
-        <v>0.0004646744930832401</v>
+        <v>0.0005659687785922365</v>
       </c>
       <c r="T10">
-        <v>0.0004646744930832401</v>
+        <v>0.0005659687785922364</v>
       </c>
     </row>
   </sheetData>
